--- a/数据整理/stocks/A股/上证主板/600862-中航高科.xlsx
+++ b/数据整理/stocks/A股/上证主板/600862-中航高科.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4252,7 +4253,6 @@
           <t>大成中小盘混合(LOF)C</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>73.54</t>
@@ -4268,6 +4268,2454 @@
       </c>
       <c r="H43" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.1948</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>131.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7482</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>108.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9688</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9238</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2008</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0384</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5424</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3755</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9393</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8219</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7642</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7339</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7215</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5630</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4925</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4917</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4633</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3791</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3050</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600862-中航高科.xlsx
+++ b/数据整理/stocks/A股/上证主板/600862-中航高科.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6721,4 +6722,2564 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2131</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>171.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.6934</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>142.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1126</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5757</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1988</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9524</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.8396</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5224</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>47.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3159</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>68.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1041</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9773</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6895</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>54.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6097</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>36.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3417</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2270</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1165</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9484</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8072</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7601</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6354</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5536</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5203</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5116</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4404</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4064</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3089</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3085</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2929</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>38.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>71.19</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>71.19</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600862-中航高科.xlsx
+++ b/数据整理/stocks/A股/上证主板/600862-中航高科.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9282,4 +9283,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>66</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600862-中航高科.xlsx
+++ b/数据整理/stocks/A股/上证主板/600862-中航高科.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9291,7 +9292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9302,17 +9303,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9322,14 +9343,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>66</v>
-      </c>
-      <c r="D2" t="n">
-        <v>59.54</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>200.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5347</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -9338,14 +9381,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>63</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45.8</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.2041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -9354,14 +9419,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35.34</v>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5419</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -9370,13 +9457,3645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3888</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8241</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>48.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4102</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1646</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1513</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0578</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9999</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9344</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9181</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9101</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7904</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7701</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7133</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6812</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6386</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5983</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>36.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5898</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5740</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5522</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5473</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4638</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3814</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3298</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3019</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>44.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2147</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>农银汇理秀山一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>55.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>44.16</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>96</v>
+      </c>
+      <c r="D2" t="n">
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>66</v>
+      </c>
+      <c r="D3" t="n">
+        <v>59.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>56</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>31.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600862-中航高科.xlsx
+++ b/数据整理/stocks/A股/上证主板/600862-中航高科.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12994,7 +12995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13005,17 +13006,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13025,14 +13046,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>96</v>
-      </c>
-      <c r="D2" t="n">
-        <v>47.22</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -13041,14 +13084,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>66</v>
-      </c>
-      <c r="D3" t="n">
-        <v>59.54</v>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -13057,14 +13122,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>63</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45.8</v>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2840</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -13073,14 +13160,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>42</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35.34</v>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0706</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -13089,13 +13198,1305 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9427</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8723</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7607</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7340</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7321</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7320</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7208</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5203</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4706</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3622</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>96</v>
+      </c>
+      <c r="D3" t="n">
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>66</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>63</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>56</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>31.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600862-中航高科.xlsx
+++ b/数据整理/stocks/A股/上证主板/600862-中航高科.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14379,7 +14380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14390,17 +14391,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14410,14 +14431,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.08</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4778</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -14426,14 +14469,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>96</v>
-      </c>
-      <c r="D3" t="n">
-        <v>47.22</v>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2232</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -14442,14 +14507,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>66</v>
-      </c>
-      <c r="D4" t="n">
-        <v>59.54</v>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -14458,14 +14545,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>63</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45.8</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -14474,14 +14583,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>42</v>
-      </c>
-      <c r="D6" t="n">
-        <v>35.34</v>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8171</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -14490,13 +14621,3447 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>44.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7330</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6883</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>131.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5608</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4370</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4176</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1507</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1316</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0886</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0417</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9866</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9162</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9143</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8621</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8609</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8390</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8092</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6737</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>53.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>45.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6469</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5883</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5745</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5348</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4474</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4118</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3425</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3425</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3226</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2868</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014020</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014021</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013939</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>92</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>96</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>66</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>35.34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>56</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>31.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600862-中航高科.xlsx
+++ b/数据整理/stocks/A股/上证主板/600862-中航高科.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D2" t="n">
-        <v>44.61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
-        <v>18.08</v>
+        <v>44.61</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>47.22</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D5" t="n">
-        <v>59.54</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D6" t="n">
-        <v>45.8</v>
+        <v>59.54</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
-        <v>35.34</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>35.34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>56</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>31.38</v>
       </c>
     </row>
@@ -600,6 +617,3174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5555</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9952</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7149</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4955</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4183</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3855</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2426</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0118</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9402</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012064</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰兴诺一年持有混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9398</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9072</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>41.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8857</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8447</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7451</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6753</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6484</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6298</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5971</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5625</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4734</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4614</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4463</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>016954</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4203</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3699</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2839</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012147</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国大盘核心资产混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014792</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013051</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013052</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>71.95</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011566</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014793</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013939</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>76.57</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013046</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4147,7 +7332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5531,7 +8716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9233,7 +12418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11793,7 +14978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14241,7 +17426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15886,7 +19071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600862-中航高科.xlsx
+++ b/数据整理/stocks/A股/上证主板/600862-中航高科.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>34</v>
+        <v>28.19</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>44.61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n">
-        <v>18.08</v>
+        <v>44.61</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>47.22</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D6" t="n">
-        <v>59.54</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7" t="n">
-        <v>45.8</v>
+        <v>59.54</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D8" t="n">
-        <v>35.34</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2214 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>42</v>
+      </c>
+      <c r="D9" t="n">
+        <v>35.34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>56</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>31.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7346</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9120</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3905</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>60.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9319</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5662</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4561</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2841</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1734</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002474</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮睿信增强债券</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9641</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9591</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9520</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7992</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7006</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6911</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6173</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5719</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4268</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4251</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>50.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2818,2948 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9492</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9100</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5133</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4328</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3476</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1931</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0313</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9435</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8959</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8411</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012064</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰兴诺一年持有混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8226</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7593</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4909</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4350</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4074</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3850</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3782</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3613</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3333</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014950</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159667</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰中证机床ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013051</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013052</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014792</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014020</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>72.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159663</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏中证机床ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014951</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014021</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>72.32</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015710</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏高端装备龙头混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013046</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015711</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏高端装备龙头混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>016113</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宝高端装备股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014793</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013939</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>016114</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝高端装备股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>016954</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3784,7 +8927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7332,7 +12475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8716,7 +13859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12418,7 +17561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14978,7 +20121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17426,7 +22569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19069,2188 +24212,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005609</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国军工主题混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>65.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.7346</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>340007</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴全社会责任混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>72.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.9120</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>590001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中邮核心优选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.3905</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008934</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成科技消费股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>60.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>70.68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.0043</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001838</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>36.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.9319</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>590008</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中邮战略新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>17.94</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.5662</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010305</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏创新驱动混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>61.18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>50.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.4561</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004224</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方军工改革灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>18.61</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.2841</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002620</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中邮未来新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.38</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.1734</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002474</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中邮睿信增强债券</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>27.39</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.9641</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002229</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏经济转型股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>23.28</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.86</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.9591</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001542</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰互联网+股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>14.23</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.9520</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007777</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中邮研究精选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.48</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>79.65</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.7992</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011113</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>富国军工主题混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.7006</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006868</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏科技成长股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14.83</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.34</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.6911</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000742</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国泰新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.6173</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>630001</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华商领先企业混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>15.05</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>88.04</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.5719</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>590006</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中邮中小盘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>80.25</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.4268</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>164402</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>前海开源中航军工指数</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>13.04</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.4251</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005819</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国泰优势行业混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2675</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008274</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>大成行业先锋混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.2424</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005409</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.2386</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008935</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>大成科技消费股票C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>70.68</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2307</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>003593</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>国泰景气行业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1986</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>168601</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>汇安裕阳三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.75</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1985</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>003842</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>29.97</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1808</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1807</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>007177</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1502</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002945</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>大成盛世精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1248</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005062</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0933</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>010306</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华夏创新驱动混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>50.42</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0821</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>004139</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>中邮军民融合灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>90.68</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0818</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>770001</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>德邦优化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.56</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0808</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>006366</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>兴业安保优选混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0661</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>005634</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>汇安行业龙头混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0642</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>011148</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>南方军工改革灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0559</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>000966</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中邮核心科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0450</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>003843</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>29.97</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0433</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>008275</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>大成行业先锋混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0274</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>000354</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>长盛城镇化主题混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>002703</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>长城久源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>004135</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>申万菱信量化成长混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>580009</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>东吴多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>91.17</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>008890</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>006270</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>汇安核心成长混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>92.30</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>007217</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>005795</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>010032</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>005360</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>汇安资产轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>87.45</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>590007</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>005161</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>006271</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>汇安核心成长混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>92.30</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>005628</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>汇安趋势动力股票A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>000706</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>中邮多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>005629</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>汇安趋势动力股票C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>008124</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>